--- a/biology/Médecine/Université_médicale_virtuelle_francophone/Université_médicale_virtuelle_francophone.xlsx
+++ b/biology/Médecine/Université_médicale_virtuelle_francophone/Université_médicale_virtuelle_francophone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_m%C3%A9dicale_virtuelle_francophone</t>
+          <t>Université_médicale_virtuelle_francophone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'« Université médicale virtuelle francophone », est un groupement d'intérêt public (GIP) français créé en 2003 pour décliner le concept d'université numérique dans le secteur médical. 
 En 2009 cette université virtuelle s'est élargie en intégrant les disciplines pharmacie, odontologie et sciences du sport. Elle a à l'occasion été rebaptisée Université numérique francophone des sciences de la santé et du sport (UNF3S) et fait partie d'un réseau de sept universités numériques thématiques de l’enseignement supérieur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_m%C3%A9dicale_virtuelle_francophone</t>
+          <t>Université_médicale_virtuelle_francophone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupement d'intérêt public a été initialement suggéré par des membres de la spécialité médicale « Informatique médicale ». 
 Il est né d’un consortium de huit universités ensuite rejointes par toutes les facultés de médecines de France.
-Il a été conjointement créé[1] avec
+Il a été conjointement créé avec
 le ministère de l'Éducation nationale, de l’Enseignement supérieur et de la Recherche ;
 le ministère de l'Économie, des Finances et de l’Industrie.
 Il fait l’objet d’un contrôle a priori de la part de l’État et du commissaire du gouvernement (représenté par le  recteur de l’académie de Lille).
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_m%C3%A9dicale_virtuelle_francophone</t>
+          <t>Université_médicale_virtuelle_francophone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Produire et mettre à disposition des ressources documentaires, complémentaire aux contenus des cours donnés aux étudiants en médecine. (début 2010 , « Plus de 12 000 ressources de toute nature, dont 3 300 vidéos et 2 000 cours » étaient répertoriés et gratuitement accessibles[2]), dont certains accessibles à tout public, via notamment le réseau Canal-U de la vidéothèque numérique de l’enseignement supérieur[3] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Produire et mettre à disposition des ressources documentaires, complémentaire aux contenus des cours donnés aux étudiants en médecine. (début 2010 , « Plus de 12 000 ressources de toute nature, dont 3 300 vidéos et 2 000 cours » étaient répertoriés et gratuitement accessibles), dont certains accessibles à tout public, via notamment le réseau Canal-U de la vidéothèque numérique de l’enseignement supérieur ;
 créer une banque de données d’items et de cas cliniques permettant l'entraînement des étudiants de 2e cycle avant les « épreuves classantes nationales » (ECN) ;
 mettre en ligne environ 30 « Campus numériques disciplinaires », dont par exemple Biophysique et médecine nucléaire, Embryologie, Microbiologie, Neuroanatomie, Rhumatologie, Urgences, etc.</t>
         </is>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_m%C3%A9dicale_virtuelle_francophone</t>
+          <t>Université_médicale_virtuelle_francophone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’UMVF a été présidée par un de ses fondateurs Albert-Claude Benhamou. Elle est aujourd'hui incluse dans une structure plus large : l'Université Numérique Francophone des Sciences du Sport et de la Santé (UNF3S). L'UNF3S est présidée depuis fin 2012 par Patrick Lévy, président de l'université Joseph Fourier à Grenoble.
 L’université s’appuie pour son fonctionnement sur un GIP dénommé « Fédération Inter-Universitaire pour l’Université Médicale Virtuelle Francophone » (FIU-UMVF) formé par la totalité des 33 universités françaises à composante médicale, qui travaille avec le GIP Esther (Ensemble pour une solidarité thérapeutique hospitalière en réseau) pour faciliter son déploiement.
